--- a/biology/Botanique/Orge_perlé/Orge_perlé.xlsx
+++ b/biology/Botanique/Orge_perlé/Orge_perlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orge_perl%C3%A9</t>
+          <t>Orge_perlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orge perlé[1] est constitué de grains d'orge qui ont été transformés pour retirer les enveloppes adhérentes (glumes) et le son. Il faut en effet retirer à l'orge, qui est une « céréale vêtue », son enveloppe externe fibreuse pour la rendre comestible ; l'orge perlé est pris une étape plus loin, c'est-à-dire poli pour lui retirer la couche externe de son, pourtant nutritive. C'est l'équivalent du riz blanc par rapport au riz cargo.
-L'orge perlé est la forme la plus courante d'orge dans l’alimentation humaine, probablement parce que sa cuisson est plus rapide et qu'elle est plus facile à mastiquer que d'autres formes d'orge moins transformées[2].
-Il s’oppose à l'« orge mondé », dont on a seulement ôté les enveloppes externes et préservé le son[2].
-L'orge perlé est comparable au blé pour sa teneur en calories, protéines, vitamines et sels minéraux, certaines variétés étant toutefois plus riches en lysine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orge perlé est constitué de grains d'orge qui ont été transformés pour retirer les enveloppes adhérentes (glumes) et le son. Il faut en effet retirer à l'orge, qui est une « céréale vêtue », son enveloppe externe fibreuse pour la rendre comestible ; l'orge perlé est pris une étape plus loin, c'est-à-dire poli pour lui retirer la couche externe de son, pourtant nutritive. C'est l'équivalent du riz blanc par rapport au riz cargo.
+L'orge perlé est la forme la plus courante d'orge dans l’alimentation humaine, probablement parce que sa cuisson est plus rapide et qu'elle est plus facile à mastiquer que d'autres formes d'orge moins transformées.
+Il s’oppose à l'« orge mondé », dont on a seulement ôté les enveloppes externes et préservé le son.
+L'orge perlé est comparable au blé pour sa teneur en calories, protéines, vitamines et sels minéraux, certaines variétés étant toutefois plus riches en lysine.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orge_perl%C3%A9</t>
+          <t>Orge_perlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On en fait principalement des soupes et des ragoûts, mais c'est aussi un ingrédient des potages épais ou des desserts. 
 En Italie, on l'utilise dans l'orzotto. 
